--- a/basic English learn/the part of passage/2024-3-10(3)/allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-10(3)/allwords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9520" windowHeight="7000"/>
+    <workbookView windowWidth="12420" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">pull up </t>
   </si>
   <si>
-    <t>制止 中断</t>
+    <t>停下来 停车</t>
   </si>
   <si>
     <t xml:space="preserve">sudden </t>
@@ -1566,8 +1566,8 @@
   <sheetPr/>
   <dimension ref="A2:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/basic English learn/the part of passage/2024-3-10(3)/allwords.xlsx
+++ b/basic English learn/the part of passage/2024-3-10(3)/allwords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12420" windowHeight="7000"/>
+    <workbookView windowWidth="12490" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1564,10 +1564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B100"/>
+  <dimension ref="A2:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -2144,219 +2144,219 @@
         <v>141</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" ht="18.5" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" ht="18.5" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>190</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>194</v>
-      </c>
-      <c r="B100" t="s">
         <v>195</v>
       </c>
     </row>
